--- a/Maegen/testdata/Maegendata.xlsx
+++ b/Maegen/testdata/Maegendata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fragrance" sheetId="1" r:id="rId1"/>
     <sheet name="Accessories" sheetId="2" r:id="rId2"/>
     <sheet name="Tableware" sheetId="3" r:id="rId3"/>
     <sheet name="GiftCard" sheetId="4" r:id="rId4"/>
+    <sheet name="Address" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>Category</t>
   </si>
@@ -77,7 +78,7 @@
     <t>Room Spray | Seasalt &amp; Rosemary</t>
   </si>
   <si>
-    <t>Best Selling</t>
+    <t>Best selling</t>
   </si>
   <si>
     <t>Room Spray | Citrus &amp; Amber</t>
@@ -128,9 +129,6 @@
     <t>Dimple | Green</t>
   </si>
   <si>
-    <t>Best selling</t>
-  </si>
-  <si>
     <t>Dimple | Grey</t>
   </si>
   <si>
@@ -201,25 +199,121 @@
   </si>
   <si>
     <t>£200.00</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>psaba2040@gmail.com</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>United State</t>
+  </si>
+  <si>
+    <t>First  name</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>1234 Palm Street</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Clearwater</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>97001</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>(407) 555-2398</t>
+  </si>
+  <si>
+    <t>Card Number</t>
+  </si>
+  <si>
+    <t>4111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>Expiration Date(MM/YY)</t>
+  </si>
+  <si>
+    <t>12/28</t>
+  </si>
+  <si>
+    <t>Security Code</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Name on Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarah Thompson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -372,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,12 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,147 +786,165 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1483,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -1389,16 +1495,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1409,36 +1515,36 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
@@ -1451,10 +1557,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1462,20 +1568,20 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
@@ -1483,12 +1589,12 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1499,20 +1605,20 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1528,7 +1634,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -1539,16 +1645,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1556,7 +1662,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -1564,12 +1670,12 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1577,7 +1683,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
@@ -1585,12 +1691,12 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1598,86 +1704,86 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1704,16 +1810,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1721,84 +1827,84 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1812,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
@@ -1824,32 +1930,168 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="35.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="psaba2040@gmail.com" tooltip="mailto:psaba2040@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>